--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>898396.8205905795</v>
+        <v>895695.6039679309</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11300660.82162485</v>
+        <v>11300844.09826514</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>68.11693918766147</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>92.73964154763149</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40.00757890955922</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.00402729331206</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0609711898435</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87073484362677</v>
+        <v>185.1421734110665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>129.4428038453366</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>134.3807354218354</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>12.84643888006764</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>31.0007482193069</v>
       </c>
       <c r="S7" t="n">
         <v>197.1876907596159</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>138.048140079196</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>2.588563451360749</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>11.8334918085936</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151397</v>
+        <v>76.72779446896655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>207.9092264837462</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0681132513132</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.722493174768422</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>126.0437728230484</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436608</v>
+        <v>94.30836251344161</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433991</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282963</v>
+        <v>30.43165252365307</v>
       </c>
       <c r="S9" t="n">
-        <v>137.178970064727</v>
+        <v>137.2048826855194</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>192.6828994016847</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>225.8192629956679</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.723675290404839</v>
       </c>
       <c r="C10" t="n">
-        <v>8.354885691989047</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332426</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.0978607009904</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8965517281904</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2341465824415</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>354.301217102303</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>240.734255897413</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
-        <v>189.7415240061373</v>
+        <v>189.655441187015</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7712536040104</v>
+        <v>225.7698485525558</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>128.4183868987312</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>36.12932374479377</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>359.5517498754645</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868892</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569548</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>71.05846343487941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795609</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>221.6488161050623</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>87.26519496153763</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>126.4418041083153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.9525770728346</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715788</v>
       </c>
       <c r="E34" t="n">
-        <v>61.66004604094956</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>65.38324202937345</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>253.291869818643</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758682</v>
+        <v>120.7871326503966</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>108.5813113004301</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227597</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="C2" t="n">
-        <v>393.841617006275</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>393.841617006275</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>603.4370373477801</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>603.4370373477801</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>414.0172523312952</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652795</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652795</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.654732181024</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>525.654732181024</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>376.7203225197727</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>217.4828675143172</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>70.94830954120218</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>70.94830954120218</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>70.94830954120218</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>676.9378076264287</v>
       </c>
       <c r="S3" t="n">
-        <v>525.654732181024</v>
+        <v>676.9378076264287</v>
       </c>
       <c r="T3" t="n">
-        <v>525.654732181024</v>
+        <v>676.9378076264287</v>
       </c>
       <c r="U3" t="n">
-        <v>525.654732181024</v>
+        <v>487.5180226099437</v>
       </c>
       <c r="V3" t="n">
-        <v>525.654732181024</v>
+        <v>298.0982375934587</v>
       </c>
       <c r="W3" t="n">
-        <v>525.654732181024</v>
+        <v>298.0982375934587</v>
       </c>
       <c r="X3" t="n">
-        <v>525.654732181024</v>
+        <v>108.6784525769738</v>
       </c>
       <c r="Y3" t="n">
-        <v>525.654732181024</v>
+        <v>108.6784525769738</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>691.5895216365209</v>
+        <v>1396.118167241171</v>
       </c>
       <c r="C5" t="n">
-        <v>691.5895216365209</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="D5" t="n">
-        <v>448.0935911417295</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="E5" t="n">
-        <v>62.30533854348519</v>
+        <v>641.3673977025153</v>
       </c>
       <c r="F5" t="n">
-        <v>55.35983779428172</v>
+        <v>230.3814929129077</v>
       </c>
       <c r="G5" t="n">
         <v>43.36919653809306</v>
@@ -4601,16 +4601,16 @@
         <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1451.655119961722</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W5" t="n">
-        <v>1451.655119961722</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X5" t="n">
-        <v>1078.189361700643</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1078.189361700643</v>
+        <v>1782.718007305293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>701.9198318029917</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="C6" t="n">
-        <v>571.1695248885103</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="D6" t="n">
-        <v>422.235115227259</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E6" t="n">
-        <v>422.235115227259</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F6" t="n">
-        <v>275.700557254144</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
         <v>43.36919653809306</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1627.262386835205</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.160796968469</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1164.008688736726</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>909.7713320085245</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>701.9198318029917</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>701.9198318029917</v>
+        <v>339.4826453284327</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4747,28 +4747,28 @@
         <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>497.4664265514521</v>
+        <v>466.1525394612431</v>
       </c>
       <c r="S7" t="n">
-        <v>298.2869409356784</v>
+        <v>266.9730538454695</v>
       </c>
       <c r="T7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="U7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>74.68308362830203</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>933.0815477010572</v>
+        <v>867.906981194307</v>
       </c>
       <c r="C8" t="n">
-        <v>933.0815477010572</v>
+        <v>498.9444642538953</v>
       </c>
       <c r="D8" t="n">
-        <v>930.4668371441271</v>
+        <v>140.6787656471448</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6785845458828</v>
+        <v>140.6787656471448</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562752</v>
+        <v>133.7332648979413</v>
       </c>
       <c r="G8" t="n">
-        <v>121.742291422556</v>
+        <v>121.7802428690589</v>
       </c>
       <c r="H8" t="n">
-        <v>121.742291422556</v>
+        <v>121.7802428690589</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420286</v>
+        <v>156.545388549431</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002229</v>
+        <v>375.5444889229379</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707921</v>
+        <v>684.1340000193404</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937548</v>
+        <v>1059.168727391399</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733705</v>
+        <v>1444.885717117908</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659507</v>
+        <v>1795.772071623095</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284331</v>
+        <v>2060.744456291594</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228513</v>
+        <v>2211.554935535244</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970528</v>
+        <v>2213.871008656653</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970528</v>
+        <v>2213.871008656653</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.052422290554</v>
+        <v>2003.861688976101</v>
       </c>
       <c r="U8" t="n">
-        <v>2007.052422290554</v>
+        <v>1750.257534176794</v>
       </c>
       <c r="V8" t="n">
-        <v>1675.989534946983</v>
+        <v>1750.257534176794</v>
       </c>
       <c r="W8" t="n">
-        <v>1323.220879676869</v>
+        <v>1397.48887890668</v>
       </c>
       <c r="X8" t="n">
-        <v>1323.220879676869</v>
+        <v>1397.48887890668</v>
       </c>
       <c r="Y8" t="n">
-        <v>933.0815477010572</v>
+        <v>1007.349546930869</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>302.8299157359301</v>
+        <v>300.5157395101139</v>
       </c>
       <c r="C9" t="n">
-        <v>302.8299157359301</v>
+        <v>298.7758474143882</v>
       </c>
       <c r="D9" t="n">
-        <v>302.8299157359301</v>
+        <v>298.7758474143882</v>
       </c>
       <c r="E9" t="n">
-        <v>302.8299157359301</v>
+        <v>139.5383924089327</v>
       </c>
       <c r="F9" t="n">
-        <v>302.8299157359301</v>
+        <v>139.5383924089327</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904267</v>
+        <v>139.5383924089327</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803673</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113494</v>
+        <v>92.32560606848332</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154159</v>
+        <v>252.6024334910129</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572538</v>
+        <v>514.4369485047741</v>
       </c>
       <c r="M9" t="n">
-        <v>840.409251044973</v>
+        <v>839.3423457618806</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738684</v>
+        <v>1187.255667013947</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074212</v>
+        <v>1483.308590376459</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566942</v>
+        <v>1701.584095618369</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257639</v>
+        <v>1797.576293952186</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285084</v>
+        <v>1766.837250999002</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058087</v>
+        <v>1628.246460407568</v>
       </c>
       <c r="T9" t="n">
-        <v>1435.931352611239</v>
+        <v>1433.617269092735</v>
       </c>
       <c r="U9" t="n">
-        <v>1207.831179666361</v>
+        <v>1205.517003440545</v>
       </c>
       <c r="V9" t="n">
-        <v>972.6790714346184</v>
+        <v>970.3648952088022</v>
       </c>
       <c r="W9" t="n">
-        <v>718.4417147064169</v>
+        <v>716.1275384806006</v>
       </c>
       <c r="X9" t="n">
-        <v>510.590214500884</v>
+        <v>508.2760382750678</v>
       </c>
       <c r="Y9" t="n">
-        <v>302.8299157359301</v>
+        <v>300.5157395101139</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.7610849089319</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="C10" t="n">
-        <v>506.3218064321753</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="D10" t="n">
-        <v>356.2051670198396</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="E10" t="n">
-        <v>208.2920734374464</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="F10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="G10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="H10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313305</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016725</v>
+        <v>95.546600222263</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810358</v>
+        <v>191.0592970264661</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422655</v>
+        <v>295.0223269524016</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091241</v>
+        <v>404.3708743014438</v>
       </c>
       <c r="O10" t="n">
-        <v>485.951469271272</v>
+        <v>485.0588674359194</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139728</v>
+        <v>535.0394137095338</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.7610849089319</v>
+        <v>535.0394137095338</v>
       </c>
       <c r="R10" t="n">
-        <v>514.7610849089319</v>
+        <v>535.0394137095338</v>
       </c>
       <c r="S10" t="n">
-        <v>514.7610849089319</v>
+        <v>336.1540079234829</v>
       </c>
       <c r="T10" t="n">
-        <v>514.7610849089319</v>
+        <v>336.1540079234829</v>
       </c>
       <c r="U10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733515814</v>
       </c>
       <c r="V10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733515814</v>
       </c>
       <c r="W10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733515814</v>
       </c>
       <c r="X10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733515814</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733515814</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1166.296315748944</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207293</v>
+        <v>1166.296315748944</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.436431609049</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194416</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656971</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484045</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535299</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464064</v>
+        <v>3835.937563882246</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3925.553311234596</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345381</v>
+        <v>3826.588132455666</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3622.786021971446</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048274</v>
+        <v>3369.295305604054</v>
       </c>
       <c r="V11" t="n">
-        <v>3076.360887000381</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>2723.592231730267</v>
+        <v>2685.463762990369</v>
       </c>
       <c r="X11" t="n">
-        <v>2723.592231730267</v>
+        <v>2311.998004729289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.452899754456</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5522947932185</v>
+        <v>941.5530399535777</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0992655120915</v>
+        <v>767.1000106724507</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1648558508402</v>
+        <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>477.1621322376509</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626179</v>
+        <v>900.449939664961</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720357</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.18095705288</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.377995458575</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.478772117604</v>
+        <v>2434.391145691522</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.8206670609</v>
+        <v>2242.819992977365</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.768895743717</v>
+        <v>2014.769640904077</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.616787511975</v>
+        <v>1779.617532672334</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.379430783773</v>
+        <v>1525.380175944132</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.52793057824</v>
+        <v>1317.5286757386</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.767631813286</v>
+        <v>1109.768376973646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>691.3935293364671</v>
+        <v>395.360342734992</v>
       </c>
       <c r="C13" t="n">
-        <v>522.4573464085602</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="D13" t="n">
-        <v>372.3407069962243</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="E13" t="n">
-        <v>224.4276134138311</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592078</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592078</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344813</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925584</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.027924603633</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1637.936231553084</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.251743347197</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1093.834573310237</v>
+        <v>834.2956531176442</v>
       </c>
       <c r="X13" t="n">
-        <v>1093.834573310237</v>
+        <v>797.8013867087618</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.0419941667068</v>
+        <v>577.0088075652317</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3593983639617</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>424.3593983639617</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1016.377752616089</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>389.8182101363266</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>239.7015707239908</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>239.7015707239908</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.78619868161</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.530292372932</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>853.5941094450254</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>703.477470032688</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203172</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,22 +5744,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835327</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>697.527634571197</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.614540988804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1936.428221820187</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820187</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.021500885209</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773689</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,13 +6148,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835334</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711975</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2252.19838578386</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1963.123159128058</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1708.438670922171</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,7 +6497,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6552,16 +6552,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.557967396012</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681051</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557694</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557694</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578592</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578592</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,10 +6625,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2428.829167345074</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2245.974332999978</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.372868022919</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.297641367117</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.61315316123</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.195983124269</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>965.2064322262518</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.2064322262518</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327647</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925222</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036841</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057737</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057737</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>680.0291294438176</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D37" t="n">
-        <v>449.4852666057157</v>
+        <v>408.9258559154853</v>
       </c>
       <c r="E37" t="n">
-        <v>301.5721730233226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>301.5721730233227</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.580456911441</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983534</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711982</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820189</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783228</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.021500885211</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.228921741681</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876684</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406112</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179081</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.5467179762944</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>815.6105350483875</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>665.4938956360518</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>517.5808020536588</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>370.6908545557485</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>203.4947552706283</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.6291529699588</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>87.01800257272185</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>90.26403234117275</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>189.5803316442434</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.04844901173867</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>75.37549921168976</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253389</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856852</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>64.53565828418184</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>58.15585306139361</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>54.58448189332931</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.42266963728709</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124966</v>
       </c>
       <c r="E34" t="n">
-        <v>84.7739166056196</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>100.1408962628954</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>32.89260457060121</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.505489761041</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>31.71340154579377</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894355.692254584</v>
+        <v>899715.8859169541</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>983824.5187533154</v>
+        <v>978464.3250909449</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>983824.5187533153</v>
+        <v>983824.5187533152</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533153</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>983824.5187533154</v>
+        <v>983824.5187533152</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253555</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.0843509179</v>
+        <v>405380.8397795044</v>
       </c>
       <c r="F2" t="n">
+        <v>441473.874400917</v>
+      </c>
+      <c r="G2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="H2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="K2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="L2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="M2" t="n">
         <v>443930.6298295033</v>
       </c>
-      <c r="H2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="I2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="L2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="N2" t="n">
-        <v>443930.6298295036</v>
-      </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861776</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264204</v>
+        <v>11460.51367737505</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674511</v>
+        <v>408312.2999680438</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704279</v>
+        <v>166521.3471051365</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854466</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>91259.95686487771</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.44734994962</v>
+        <v>2873.29035019884</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931122</v>
+        <v>106639.5191329084</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202333</v>
+        <v>43782.40655848876</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607421</v>
+        <v>171039.3658295536</v>
       </c>
       <c r="E4" t="n">
-        <v>15941.16541224543</v>
+        <v>15947.46301458593</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16040.05135066662</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="N4" t="n">
+        <v>16046.58397189198</v>
+      </c>
+      <c r="O4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="O4" t="n">
-        <v>16046.583971892</v>
-      </c>
       <c r="P4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404161</v>
+        <v>86091.29148672879</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475306.294341233</v>
+        <v>-475306.2943412334</v>
       </c>
       <c r="C6" t="n">
-        <v>-200339.3428055921</v>
+        <v>-200339.3428055917</v>
       </c>
       <c r="D6" t="n">
-        <v>182338.4801879302</v>
+        <v>182981.8024316982</v>
       </c>
       <c r="E6" t="n">
-        <v>-94098.5228961644</v>
+        <v>-105182.6096091173</v>
       </c>
       <c r="F6" t="n">
-        <v>137453.2472632764</v>
+        <v>158724.4424357099</v>
       </c>
       <c r="G6" t="n">
-        <v>326761.5160337043</v>
+        <v>315559.5418726891</v>
       </c>
       <c r="H6" t="n">
-        <v>326761.5160337043</v>
+        <v>326726.7781082685</v>
       </c>
       <c r="I6" t="n">
-        <v>326761.5160337044</v>
+        <v>326726.7781082686</v>
       </c>
       <c r="J6" t="n">
-        <v>277696.5713051598</v>
+        <v>277661.8333797239</v>
       </c>
       <c r="K6" t="n">
-        <v>235501.5591688267</v>
+        <v>235466.8212433907</v>
       </c>
       <c r="L6" t="n">
-        <v>323687.0686837548</v>
+        <v>323853.4877580697</v>
       </c>
       <c r="M6" t="n">
-        <v>223352.2551405921</v>
+        <v>220087.2589753601</v>
       </c>
       <c r="N6" t="n">
-        <v>276921.9419016812</v>
+        <v>282944.3715497798</v>
       </c>
       <c r="O6" t="n">
-        <v>326761.5160337043</v>
+        <v>323703.4801310437</v>
       </c>
       <c r="P6" t="n">
-        <v>326761.5160337045</v>
+        <v>326726.7781082686</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573208</v>
+        <v>862.9748695021863</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426321</v>
+        <v>553.4677521641631</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>981.388327808649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247795</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319636669</v>
+        <v>9.264204964502142</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576303</v>
+        <v>349.1953979923705</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>145.8707812218286</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646886</v>
+        <v>11.35279543799993</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063778</v>
+        <v>427.9205756444859</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506383</v>
+        <v>178.756962517357</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646886</v>
+        <v>11.35279543799993</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063778</v>
+        <v>427.9205756444857</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506381</v>
+        <v>178.7569625173572</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646886</v>
+        <v>11.35279543799993</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063778</v>
+        <v>427.9205756444859</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506383</v>
+        <v>178.756962517357</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.5613044873861</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>90.65887400239163</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871024</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>73.79354210223585</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>18.89697999453227</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377083</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310518</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715738</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>126.4299353532571</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6220704308395</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>226.7285614325603</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>43.26569514297918</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>36.29946757904885</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>71.30196035546899</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>96.30772656701589</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>77.07210304633169</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>244.6857015842846</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>352.0944781693222</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.918686916365</v>
+        <v>303.9453895236495</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>129.964633048432</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>170.9860058135473</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>9.442139183865393</v>
+        <v>135.4873070665456</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.61339202271544</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>177.1083048915325</v>
       </c>
       <c r="C10" t="n">
-        <v>158.8919354066388</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.433625596421</v>
+        <v>166.4347951675532</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3808817867763</v>
+        <v>148.3912803373881</v>
       </c>
       <c r="I10" t="n">
-        <v>108.61659997434</v>
+        <v>108.651772168025</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.9731991423715</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.19579633461572</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313612</v>
+        <v>107.3216913024513</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>221.2964387944122</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-7.032208304403596e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.084969465812697e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.742195080722396e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753046</v>
+        <v>3.46924570654145</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940214</v>
+        <v>35.52941259211763</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788919</v>
+        <v>133.7480951014394</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545841</v>
+        <v>294.4478927855727</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855806</v>
+        <v>441.3010635434723</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160167</v>
+        <v>547.4729918350403</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563187</v>
+        <v>609.1691901687468</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765484</v>
+        <v>619.0261845324577</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639101</v>
+        <v>584.5288725380361</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278193</v>
+        <v>498.881869157794</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463508</v>
+        <v>374.6395072922782</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787937</v>
+        <v>217.9250056135345</v>
       </c>
       <c r="S8" t="n">
-        <v>79.1148517130601</v>
+        <v>79.05543653781336</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095646</v>
+        <v>15.1866230803852</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802436</v>
+        <v>0.2775396565233159</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296879</v>
+        <v>1.85621009666508</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213039</v>
+        <v>17.92708172305485</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566009</v>
+        <v>63.90898797728456</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148731</v>
+        <v>175.3711477730811</v>
       </c>
       <c r="K9" t="n">
-        <v>299.962495786764</v>
+        <v>299.7372242496414</v>
       </c>
       <c r="L9" t="n">
-        <v>403.336593256478</v>
+        <v>403.0336878745824</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722398</v>
+        <v>470.3213038786915</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668799</v>
+        <v>482.7693093076429</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510385</v>
+        <v>441.6396013762745</v>
       </c>
       <c r="P9" t="n">
-        <v>354.72111094234</v>
+        <v>354.4547157394924</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230893</v>
+        <v>236.9435905848267</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111343</v>
+        <v>115.2478514403109</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911086</v>
+        <v>34.47828841831846</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442241</v>
+        <v>7.481829293136877</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458473</v>
+        <v>0.1221190853069132</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037791</v>
+        <v>1.556184190905582</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066328</v>
+        <v>13.83589217005145</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291832</v>
+        <v>46.79870275923332</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760718</v>
+        <v>110.0222222970246</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258452</v>
+        <v>180.8003087252121</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306004</v>
+        <v>231.3621478006353</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801603</v>
+        <v>243.938945488954</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762015</v>
+        <v>238.1386225955789</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833054</v>
+        <v>219.9595618199999</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377343</v>
+        <v>188.2134043255259</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284554</v>
+        <v>130.3092052948301</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580831</v>
+        <v>69.97170007471823</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387678</v>
+        <v>27.12004630878181</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343289</v>
+        <v>6.649150633869302</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842508</v>
+        <v>0.08488277404939545</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>660.6327957845334</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>237.3367583732538</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924477</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
-        <v>293.769395702911</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>671.3535095519902</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,10 +33026,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>218.6425359394819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278978</v>
+        <v>113.4019882588864</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406</v>
+        <v>221.2112124984918</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460295</v>
+        <v>311.706576865053</v>
       </c>
       <c r="M8" t="n">
-        <v>379.280786229046</v>
+        <v>378.8229569414741</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799575</v>
+        <v>389.6131209358668</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422234</v>
+        <v>354.4306611163494</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725498</v>
+        <v>267.6488734025245</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719013</v>
+        <v>152.3338174178287</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661569</v>
+        <v>2.339467799402399</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820642</v>
+        <v>48.53352110641441</v>
       </c>
       <c r="K9" t="n">
-        <v>162.121056812405</v>
+        <v>161.8957852752824</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766038</v>
+        <v>264.4793080947082</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502214</v>
+        <v>328.1872699566732</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835466</v>
+        <v>351.4275972243096</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065941</v>
+        <v>299.0433569318301</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280097</v>
+        <v>220.4803083251621</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706778</v>
+        <v>96.96181649880521</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530979</v>
+        <v>51.78705055467671</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936212</v>
+        <v>96.47747151939706</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325553</v>
+        <v>105.0131615413489</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109683</v>
+        <v>110.4530781303457</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146256</v>
+        <v>81.50302336815713</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858664</v>
+        <v>50.4854002763783</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>105.9950462899205</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480032</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>159.7949882885807</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>540.0117974686569</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060444</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,10 +36674,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>91.80490927281522</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
